--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/77_Uşak_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/77_Uşak_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE1888B-95C7-4EEB-8D20-5A04226BDACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D16E43-F1CF-461A-AC45-D0159259812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{6964E2C2-B677-4849-B078-6C53C5B4A5B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{513FD051-6473-4CA5-A78E-48EE652560FE}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -850,15 +850,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{DE99B426-4570-4037-A23B-87346AA9FF23}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{33E0E177-B2ED-421A-8FB9-00EFCA9D0318}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{D40925C2-66AE-4826-884F-C9FF37213294}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B66F1239-132C-4B00-A67F-004D69BA32CE}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{6968754F-05F0-41E5-B635-616F8634A348}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D3CB3DDD-AE13-4AD3-A700-6C83B4411741}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{DEAD5429-70C7-43CB-80E6-D01E3454F494}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{9D0278ED-90DD-4802-9A4D-2DCBE8EDF5A8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{93C1945A-9DFE-4083-90C8-AE10867DF157}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8D763E8F-83AC-4D6D-9D1E-F65D65E2C47B}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5FF11160-DBB7-43E0-92B9-041DD89D88EA}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{B118F998-5A76-4BAD-B476-B0D02E201334}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F9715AE0-0A32-46F0-BC43-CE5F8AC54707}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E2DBA06E-8073-4B8B-8577-A9D72372B77B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{6CB3A0B5-994E-4830-8B99-25ED7CC6D4D4}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6DB39F40-99EE-402F-968E-BB14F0E8353C}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{4901F146-3EBF-4CF7-82B9-E6F38E9D5185}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CB7BE321-330C-48F2-9C05-E43CDEF7C59F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1228,7 +1228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464571E1-73B4-4C6B-850E-E5E6D0F34A82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D6F023-80B5-4E8D-B7CF-BA25A0F24178}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2501,7 +2501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532A6450-6DBE-448B-88EB-15A9224FF287}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532C6E7F-D47A-4940-88FD-01FBBF72C7CC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3780,7 +3780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4D7523-716F-43F1-9ABA-B91354293547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D343D93-E722-45C6-A52D-44DD384A2993}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5053,7 +5053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0611F0-670D-4C74-B9A0-64A32CA29580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8008F24-4B2F-4A75-81AF-DB43BB226E77}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6328,7 +6328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71C12D-DC8F-4CC3-A0CA-FF08A80CC78E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF296A42-D492-443A-AA24-68B055BC786F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7599,7 +7599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1608747-DFDB-420B-A87D-E0F21FFFE90F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80F9493-6B64-4B98-AD0E-770279AC979E}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
